--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H2">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I2">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J2">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N2">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q2">
-        <v>909.6235857982889</v>
+        <v>786.3746299627599</v>
       </c>
       <c r="R2">
-        <v>3638.494343193156</v>
+        <v>3145.498519851039</v>
       </c>
       <c r="S2">
-        <v>0.02652657646380252</v>
+        <v>0.04672896351845633</v>
       </c>
       <c r="T2">
-        <v>0.01693526997298598</v>
+        <v>0.03249350854067101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H3">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I3">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J3">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q3">
-        <v>3410.74647141031</v>
+        <v>2438.909612731267</v>
       </c>
       <c r="R3">
-        <v>20464.47882846186</v>
+        <v>14633.4576763876</v>
       </c>
       <c r="S3">
-        <v>0.09946468900441788</v>
+        <v>0.1449280202789973</v>
       </c>
       <c r="T3">
-        <v>0.09525134331040484</v>
+        <v>0.1511659849739068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H4">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I4">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J4">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N4">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q4">
-        <v>1796.323252670898</v>
+        <v>1261.1628016452</v>
       </c>
       <c r="R4">
-        <v>10777.93951602539</v>
+        <v>7566.9768098712</v>
       </c>
       <c r="S4">
-        <v>0.05238464224062853</v>
+        <v>0.07494243621733269</v>
       </c>
       <c r="T4">
-        <v>0.05016561748896855</v>
+        <v>0.07816809451566785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H5">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I5">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J5">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N5">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q5">
-        <v>5225.343119756469</v>
+        <v>3343.87749264702</v>
       </c>
       <c r="R5">
-        <v>20901.37247902587</v>
+        <v>13375.50997058808</v>
       </c>
       <c r="S5">
-        <v>0.1523822226906961</v>
+        <v>0.198704184253108</v>
       </c>
       <c r="T5">
-        <v>0.09728485256557981</v>
+        <v>0.1381711816814704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H6">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I6">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J6">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N6">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q6">
-        <v>616.010955540012</v>
+        <v>248.10780796776</v>
       </c>
       <c r="R6">
-        <v>3696.065733240072</v>
+        <v>1488.64684780656</v>
       </c>
       <c r="S6">
-        <v>0.01796420186305037</v>
+        <v>0.01474338090957827</v>
       </c>
       <c r="T6">
-        <v>0.01720323439485971</v>
+        <v>0.01537796274834558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H7">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I7">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J7">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N7">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q7">
-        <v>2811.017573128981</v>
+        <v>921.9454199363335</v>
       </c>
       <c r="R7">
-        <v>16866.10543877389</v>
+        <v>5531.672519618</v>
       </c>
       <c r="S7">
-        <v>0.08197530688395524</v>
+        <v>0.05478502516828782</v>
       </c>
       <c r="T7">
-        <v>0.07850281519135499</v>
+        <v>0.05714307195697384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>268.695167</v>
       </c>
       <c r="I8">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J8">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N8">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O8">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P8">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q8">
-        <v>318.2918613579445</v>
+        <v>384.8106190733263</v>
       </c>
       <c r="R8">
-        <v>1909.751168147667</v>
+        <v>2308.863714439958</v>
       </c>
       <c r="S8">
-        <v>0.009282073958875826</v>
+        <v>0.02286671097342449</v>
       </c>
       <c r="T8">
-        <v>0.008888883302597768</v>
+        <v>0.02385093566280013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>268.695167</v>
       </c>
       <c r="I9">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J9">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P9">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q9">
         <v>1193.474817446044</v>
@@ -1013,10 +1013,10 @@
         <v>10741.2733570144</v>
       </c>
       <c r="S9">
-        <v>0.03480428772613825</v>
+        <v>0.07092019386138335</v>
       </c>
       <c r="T9">
-        <v>0.04999495587920536</v>
+        <v>0.1109590913367709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>268.695167</v>
       </c>
       <c r="I10">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J10">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N10">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O10">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P10">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q10">
-        <v>628.5622763303825</v>
+        <v>617.1471204206101</v>
       </c>
       <c r="R10">
-        <v>5657.060486973442</v>
+        <v>5554.32408378549</v>
       </c>
       <c r="S10">
-        <v>0.01833022532139692</v>
+        <v>0.03667290903957669</v>
       </c>
       <c r="T10">
-        <v>0.02633062953076599</v>
+        <v>0.05737706627904739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>268.695167</v>
       </c>
       <c r="I11">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J11">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N11">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O11">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P11">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q11">
-        <v>1828.431247593035</v>
+        <v>1636.318771005874</v>
       </c>
       <c r="R11">
-        <v>10970.58748555821</v>
+        <v>9817.912626035242</v>
       </c>
       <c r="S11">
-        <v>0.05332098029924866</v>
+        <v>0.09723543619218723</v>
       </c>
       <c r="T11">
-        <v>0.05106229206533264</v>
+        <v>0.1014206256185889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>268.695167</v>
       </c>
       <c r="I12">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J12">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N12">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O12">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P12">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q12">
-        <v>215.552099480406</v>
+        <v>121.410985989618</v>
       </c>
       <c r="R12">
-        <v>1939.968895323654</v>
+        <v>1092.698873906562</v>
       </c>
       <c r="S12">
-        <v>0.006285961949614736</v>
+        <v>0.007214639586372908</v>
       </c>
       <c r="T12">
-        <v>0.009029530867064301</v>
+        <v>0.01128775612755523</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>268.695167</v>
       </c>
       <c r="I13">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J13">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N13">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O13">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P13">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q13">
-        <v>983.6200705766689</v>
+        <v>451.1518737758862</v>
       </c>
       <c r="R13">
-        <v>8852.580635190019</v>
+        <v>4060.366863982976</v>
       </c>
       <c r="S13">
-        <v>0.02868447280924927</v>
+        <v>0.02680892623908145</v>
       </c>
       <c r="T13">
-        <v>0.04120408852498024</v>
+        <v>0.04194424652895288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H14">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I14">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J14">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N14">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O14">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P14">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q14">
-        <v>0.4778136005599999</v>
+        <v>0.5230840440216666</v>
       </c>
       <c r="R14">
-        <v>2.86688160336</v>
+        <v>3.13850426413</v>
       </c>
       <c r="S14">
-        <v>1.393407032160036E-05</v>
+        <v>3.108337207080627E-05</v>
       </c>
       <c r="T14">
-        <v>1.334382009534185E-05</v>
+        <v>3.242125674764903E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H15">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I15">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J15">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.975685</v>
       </c>
       <c r="O15">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P15">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q15">
-        <v>1.791621366844444</v>
+        <v>1.622324340869445</v>
       </c>
       <c r="R15">
-        <v>16.1245923016</v>
+        <v>14.600919067825</v>
       </c>
       <c r="S15">
-        <v>5.224752515632377E-05</v>
+        <v>9.64038411859524E-05</v>
       </c>
       <c r="T15">
-        <v>7.505146307092406E-05</v>
+        <v>0.0001508298558838571</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H16">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I16">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J16">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N16">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O16">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P16">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q16">
-        <v>0.9435855605866665</v>
+        <v>0.8389056733500001</v>
       </c>
       <c r="R16">
-        <v>8.49227004528</v>
+        <v>7.550151060150001</v>
       </c>
       <c r="S16">
-        <v>2.751698055528725E-05</v>
+        <v>4.985053066533267E-05</v>
       </c>
       <c r="T16">
-        <v>3.952703297982941E-05</v>
+        <v>7.799428179923558E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H17">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I17">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J17">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N17">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O17">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P17">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q17">
-        <v>2.744805707759999</v>
+        <v>2.2242947507725</v>
       </c>
       <c r="R17">
-        <v>16.46883424656</v>
+        <v>13.345768504635</v>
       </c>
       <c r="S17">
-        <v>8.004442675184005E-05</v>
+        <v>0.0001321749002356095</v>
       </c>
       <c r="T17">
-        <v>7.665372755838431E-05</v>
+        <v>0.0001378639475270559</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H18">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I18">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J18">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N18">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O18">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P18">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q18">
-        <v>0.32358265248</v>
+        <v>0.16503741423</v>
       </c>
       <c r="R18">
-        <v>2.91224387232</v>
+        <v>1.485336728070001</v>
       </c>
       <c r="S18">
-        <v>9.436364785811718E-06</v>
+        <v>9.807065252218594E-06</v>
       </c>
       <c r="T18">
-        <v>1.355495750520535E-05</v>
+        <v>1.534376867600641E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H19">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I19">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J19">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N19">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O19">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P19">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q19">
-        <v>1.476591470168889</v>
+        <v>0.6132636026805557</v>
       </c>
       <c r="R19">
-        <v>13.28932323152</v>
+        <v>5.519372424125001</v>
       </c>
       <c r="S19">
-        <v>4.306057709009251E-05</v>
+        <v>3.64421376592654E-05</v>
       </c>
       <c r="T19">
-        <v>6.185478262597863E-05</v>
+        <v>5.701600998080995E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H20">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I20">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J20">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N20">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O20">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P20">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q20">
-        <v>306.6165856517332</v>
+        <v>296.157419578595</v>
       </c>
       <c r="R20">
-        <v>1226.466342606933</v>
+        <v>1184.62967831438</v>
       </c>
       <c r="S20">
-        <v>0.008941597855801835</v>
+        <v>0.01759864666013412</v>
       </c>
       <c r="T20">
-        <v>0.005708553227157368</v>
+        <v>0.01223741620824655</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H21">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I21">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J21">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.975685</v>
       </c>
       <c r="O21">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P21">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q21">
-        <v>1149.696922897767</v>
+        <v>918.5204481051584</v>
       </c>
       <c r="R21">
-        <v>6898.181537386604</v>
+        <v>5511.122688630951</v>
       </c>
       <c r="S21">
-        <v>0.03352763034247992</v>
+        <v>0.05458150209206868</v>
       </c>
       <c r="T21">
-        <v>0.03210739268479545</v>
+        <v>0.05693078887864046</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H22">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I22">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J22">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N22">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O22">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P22">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q22">
-        <v>605.5059598937265</v>
+        <v>474.96791830815</v>
       </c>
       <c r="R22">
-        <v>3633.035759362359</v>
+        <v>2849.8075098489</v>
       </c>
       <c r="S22">
-        <v>0.01765785363878072</v>
+        <v>0.02822415383379009</v>
       </c>
       <c r="T22">
-        <v>0.01690986314749024</v>
+        <v>0.02943897257498277</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H23">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I23">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J23">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N23">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O23">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P23">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q23">
-        <v>1761.362492412098</v>
+        <v>1259.341402781753</v>
       </c>
       <c r="R23">
-        <v>7045.449969648393</v>
+        <v>5037.36561112701</v>
       </c>
       <c r="S23">
-        <v>0.05136511142071928</v>
+        <v>0.07483420271411474</v>
       </c>
       <c r="T23">
-        <v>0.0327928494764262</v>
+        <v>0.05203680163085545</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H24">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I24">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J24">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N24">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O24">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P24">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q24">
-        <v>207.645424833591</v>
+        <v>93.44015611047001</v>
       </c>
       <c r="R24">
-        <v>1245.872549001546</v>
+        <v>560.6409366628201</v>
       </c>
       <c r="S24">
-        <v>0.006055386343542382</v>
+        <v>0.005552520999122002</v>
       </c>
       <c r="T24">
-        <v>0.005798878871076286</v>
+        <v>0.00579151156763725</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H25">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I25">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J25">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N25">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O25">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P25">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q25">
-        <v>947.5398658703634</v>
+        <v>347.2148848107917</v>
       </c>
       <c r="R25">
-        <v>5685.239195222181</v>
+        <v>2083.28930886475</v>
       </c>
       <c r="S25">
-        <v>0.0276322965861234</v>
+        <v>0.02063264895277314</v>
       </c>
       <c r="T25">
-        <v>0.02646178653876716</v>
+        <v>0.02152071556323323</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H26">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I26">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J26">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N26">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O26">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P26">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q26">
-        <v>575.9514523897285</v>
+        <v>2.029664049567666</v>
       </c>
       <c r="R26">
-        <v>3455.708714338371</v>
+        <v>12.177984297406</v>
       </c>
       <c r="S26">
-        <v>0.01679598075488138</v>
+        <v>0.0001206093046662267</v>
       </c>
       <c r="T26">
-        <v>0.01608449938497369</v>
+        <v>0.0001258005477601238</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H27">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I27">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J27">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.975685</v>
       </c>
       <c r="O27">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P27">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q27">
-        <v>2159.601416027404</v>
+        <v>6.294922257779445</v>
       </c>
       <c r="R27">
-        <v>19436.41274424663</v>
+        <v>56.654300320015</v>
       </c>
       <c r="S27">
-        <v>0.06297861333851849</v>
+        <v>0.0003740649574989781</v>
       </c>
       <c r="T27">
-        <v>0.0904662385269312</v>
+        <v>0.0005852480869713863</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H28">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I28">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J28">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N28">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O28">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P28">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q28">
-        <v>1137.38803884387</v>
+        <v>3.25511111577</v>
       </c>
       <c r="R28">
-        <v>10236.49234959483</v>
+        <v>29.29600004193</v>
       </c>
       <c r="S28">
-        <v>0.03316867685981134</v>
+        <v>0.0001934293945680081</v>
       </c>
       <c r="T28">
-        <v>0.04764546682369021</v>
+        <v>0.0003026324194916585</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H29">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I29">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J29">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N29">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O29">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P29">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q29">
-        <v>3308.559722994898</v>
+        <v>8.6306801801395</v>
       </c>
       <c r="R29">
-        <v>19851.35833796939</v>
+        <v>51.784081080837</v>
       </c>
       <c r="S29">
-        <v>0.0964847040548743</v>
+        <v>0.0005128633655135873</v>
       </c>
       <c r="T29">
-        <v>0.09239759116650374</v>
+        <v>0.0005349379344011461</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H30">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I30">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J30">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N30">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O30">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P30">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q30">
-        <v>390.043101421878</v>
+        <v>0.6403760740260001</v>
       </c>
       <c r="R30">
-        <v>3510.387912796902</v>
+        <v>5.763384666234001</v>
       </c>
       <c r="S30">
-        <v>0.01137449414855047</v>
+        <v>3.805324976299192E-05</v>
       </c>
       <c r="T30">
-        <v>0.01633900218213595</v>
+        <v>5.953669591436192E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H31">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I31">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J31">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N31">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O31">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P31">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q31">
-        <v>1779.867715848461</v>
+        <v>2.379577625230556</v>
       </c>
       <c r="R31">
-        <v>16018.80944263615</v>
+        <v>21.416198627075</v>
       </c>
       <c r="S31">
-        <v>0.05190476346155068</v>
+        <v>0.0001414023186938259</v>
       </c>
       <c r="T31">
-        <v>0.07455909971781935</v>
+        <v>0.0002212327962025311</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H32">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I32">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J32">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N32">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O32">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P32">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q32">
-        <v>1.015882225431</v>
+        <v>0.4253844987873333</v>
       </c>
       <c r="R32">
-        <v>6.095293352585999</v>
+        <v>2.552306992724</v>
       </c>
       <c r="S32">
-        <v>2.96253065024295E-05</v>
+        <v>2.52777441791217E-05</v>
       </c>
       <c r="T32">
-        <v>2.837037212486077E-05</v>
+        <v>2.636574410800203E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H33">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I33">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J33">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>39.975685</v>
       </c>
       <c r="O33">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P33">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q33">
-        <v>3.809176421823333</v>
+        <v>1.319313090312222</v>
       </c>
       <c r="R33">
-        <v>34.28258779641</v>
+        <v>11.87381781281</v>
       </c>
       <c r="S33">
-        <v>0.0001110837616737185</v>
+        <v>7.839791737627811E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001595673443304777</v>
+        <v>0.0001226584587708484</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H34">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I34">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J34">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N34">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O34">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P34">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q34">
-        <v>2.006162650142</v>
+        <v>0.6822182275800001</v>
       </c>
       <c r="R34">
-        <v>18.055463851278</v>
+        <v>6.13996404822</v>
       </c>
       <c r="S34">
-        <v>5.850400953611308E-05</v>
+        <v>4.053964796616273E-05</v>
       </c>
       <c r="T34">
-        <v>8.403865059758027E-05</v>
+        <v>6.342682184752631E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H35">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I35">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J35">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N35">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O35">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P35">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q35">
-        <v>5.835747093651</v>
+        <v>1.808849875133</v>
       </c>
       <c r="R35">
-        <v>35.014482561906</v>
+        <v>10.853099250798</v>
       </c>
       <c r="S35">
-        <v>0.0001701829129323768</v>
+        <v>0.0001074878011126289</v>
       </c>
       <c r="T35">
-        <v>0.0001629739280094322</v>
+        <v>0.0001121142709090372</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H36">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I36">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J36">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N36">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O36">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P36">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q36">
-        <v>0.687970925748</v>
+        <v>0.134212386204</v>
       </c>
       <c r="R36">
-        <v>6.191738331732</v>
+        <v>1.207911475836</v>
       </c>
       <c r="S36">
-        <v>2.006270907180963E-05</v>
+        <v>7.975340835892293E-06</v>
       </c>
       <c r="T36">
-        <v>2.881927257799246E-05</v>
+        <v>1.247792094281778E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H37">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I37">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J37">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N37">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O37">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P37">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q37">
-        <v>3.139389559044667</v>
+        <v>0.4987206802277778</v>
       </c>
       <c r="R37">
-        <v>28.254506031402</v>
+        <v>4.48848612205</v>
       </c>
       <c r="S37">
-        <v>9.155133891408193E-05</v>
+        <v>2.963562096779138E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001315098066567892</v>
+        <v>4.636678771936661E-05</v>
       </c>
     </row>
   </sheetData>
